--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,7 +91,10 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.0701183765730351</v>
+        <v>0.002491666666666667</v>
       </c>
       <c r="H2">
-        <v>0.0701183765730351</v>
+        <v>0.007475</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02766080269984236</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02766080269984236</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.159305958408801</v>
+        <v>0.168045</v>
       </c>
       <c r="N2">
-        <v>0.159305958408801</v>
+        <v>0.504135</v>
       </c>
       <c r="O2">
-        <v>0.102430032088768</v>
+        <v>0.08555333432892556</v>
       </c>
       <c r="P2">
-        <v>0.102430032088768</v>
+        <v>0.08555333432892556</v>
       </c>
       <c r="Q2">
-        <v>0.01117027518203658</v>
+        <v>0.000418712125</v>
       </c>
       <c r="R2">
-        <v>0.01117027518203658</v>
+        <v>0.003768409125</v>
       </c>
       <c r="S2">
-        <v>0.102430032088768</v>
+        <v>0.002366473901186061</v>
       </c>
       <c r="T2">
-        <v>0.102430032088768</v>
+        <v>0.002366473901186061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.0701183765730351</v>
+        <v>0.002491666666666667</v>
       </c>
       <c r="H3">
-        <v>0.0701183765730351</v>
+        <v>0.007475</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02766080269984236</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.02766080269984236</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.270285247909694</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="N3">
-        <v>0.270285247909694</v>
+        <v>0.972994</v>
       </c>
       <c r="O3">
-        <v>0.1737871382404053</v>
+        <v>0.1651202177631758</v>
       </c>
       <c r="P3">
-        <v>0.1737871382404053</v>
+        <v>0.1651202177631757</v>
       </c>
       <c r="Q3">
-        <v>0.01895196279506807</v>
+        <v>0.0008081255722222223</v>
       </c>
       <c r="R3">
-        <v>0.01895196279506807</v>
+        <v>0.00727313015</v>
       </c>
       <c r="S3">
-        <v>0.1737871382404053</v>
+        <v>0.004567357765302211</v>
       </c>
       <c r="T3">
-        <v>0.1737871382404053</v>
+        <v>0.00456735776530221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,495 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.002491666666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.007475</v>
+      </c>
+      <c r="I4">
+        <v>0.02766080269984236</v>
+      </c>
+      <c r="J4">
+        <v>0.02766080269984236</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.01482133333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.044464</v>
+      </c>
+      <c r="O4">
+        <v>0.007545684107632571</v>
+      </c>
+      <c r="P4">
+        <v>0.00754568410763257</v>
+      </c>
+      <c r="Q4">
+        <v>3.692982222222222E-05</v>
+      </c>
+      <c r="R4">
+        <v>0.0003323684</v>
+      </c>
+      <c r="S4">
+        <v>0.0002087196793365606</v>
+      </c>
+      <c r="T4">
+        <v>0.0002087196793365606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.002491666666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.007475</v>
+      </c>
+      <c r="I5">
+        <v>0.02766080269984236</v>
+      </c>
+      <c r="J5">
+        <v>0.02766080269984236</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.321026</v>
+      </c>
+      <c r="N5">
+        <v>0.9630780000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="P5">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="Q5">
+        <v>0.0007998897833333334</v>
+      </c>
+      <c r="R5">
+        <v>0.00719900805</v>
+      </c>
+      <c r="S5">
+        <v>0.004520810798310907</v>
+      </c>
+      <c r="T5">
+        <v>0.004520810798310907</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.002491666666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.007475</v>
+      </c>
+      <c r="I6">
+        <v>0.02766080269984236</v>
+      </c>
+      <c r="J6">
+        <v>0.02766080269984236</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.135989666666667</v>
+      </c>
+      <c r="N6">
+        <v>3.407969</v>
+      </c>
+      <c r="O6">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="P6">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="Q6">
+        <v>0.002830507586111112</v>
+      </c>
+      <c r="R6">
+        <v>0.025474568275</v>
+      </c>
+      <c r="S6">
+        <v>0.01599744055570662</v>
+      </c>
+      <c r="T6">
+        <v>0.01599744055570662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.08758766666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.262763</v>
+      </c>
+      <c r="I7">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="J7">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.168045</v>
+      </c>
+      <c r="N7">
+        <v>0.504135</v>
+      </c>
+      <c r="O7">
+        <v>0.08555333432892556</v>
+      </c>
+      <c r="P7">
+        <v>0.08555333432892556</v>
+      </c>
+      <c r="Q7">
+        <v>0.014718669445</v>
+      </c>
+      <c r="R7">
+        <v>0.132468025005</v>
+      </c>
+      <c r="S7">
+        <v>0.0831868604277395</v>
+      </c>
+      <c r="T7">
+        <v>0.0831868604277395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.0701183765730351</v>
-      </c>
-      <c r="H4">
-        <v>0.0701183765730351</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.12567491202796</v>
-      </c>
-      <c r="N4">
-        <v>1.12567491202796</v>
-      </c>
-      <c r="O4">
-        <v>0.7237828296708266</v>
-      </c>
-      <c r="P4">
-        <v>0.7237828296708266</v>
-      </c>
-      <c r="Q4">
-        <v>0.07893049738039466</v>
-      </c>
-      <c r="R4">
-        <v>0.07893049738039466</v>
-      </c>
-      <c r="S4">
-        <v>0.7237828296708266</v>
-      </c>
-      <c r="T4">
-        <v>0.7237828296708266</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.08758766666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.262763</v>
+      </c>
+      <c r="I8">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="J8">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.3243313333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.972994</v>
+      </c>
+      <c r="O8">
+        <v>0.1651202177631758</v>
+      </c>
+      <c r="P8">
+        <v>0.1651202177631757</v>
+      </c>
+      <c r="Q8">
+        <v>0.02840742471355556</v>
+      </c>
+      <c r="R8">
+        <v>0.255666822422</v>
+      </c>
+      <c r="S8">
+        <v>0.1605528599978736</v>
+      </c>
+      <c r="T8">
+        <v>0.1605528599978735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.08758766666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.262763</v>
+      </c>
+      <c r="I9">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="J9">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01482133333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.044464</v>
+      </c>
+      <c r="O9">
+        <v>0.007545684107632571</v>
+      </c>
+      <c r="P9">
+        <v>0.00754568410763257</v>
+      </c>
+      <c r="Q9">
+        <v>0.001298166003555555</v>
+      </c>
+      <c r="R9">
+        <v>0.011683494032</v>
+      </c>
+      <c r="S9">
+        <v>0.00733696442829601</v>
+      </c>
+      <c r="T9">
+        <v>0.007336964428296009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.08758766666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.262763</v>
+      </c>
+      <c r="I10">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="J10">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.321026</v>
+      </c>
+      <c r="N10">
+        <v>0.9630780000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="P10">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="Q10">
+        <v>0.02811791827933333</v>
+      </c>
+      <c r="R10">
+        <v>0.253061264514</v>
+      </c>
+      <c r="S10">
+        <v>0.158916629805561</v>
+      </c>
+      <c r="T10">
+        <v>0.158916629805561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.08758766666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.262763</v>
+      </c>
+      <c r="I11">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="J11">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.135989666666667</v>
+      </c>
+      <c r="N11">
+        <v>3.407969</v>
+      </c>
+      <c r="O11">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="P11">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="Q11">
+        <v>0.09949868426077779</v>
+      </c>
+      <c r="R11">
+        <v>0.895488158347</v>
+      </c>
+      <c r="S11">
+        <v>0.5623458826406875</v>
+      </c>
+      <c r="T11">
+        <v>0.5623458826406875</v>
       </c>
     </row>
   </sheetData>
